--- a/medicine/Médecine vétérinaire/Picage_chronique/Picage_chronique.xlsx
+++ b/medicine/Médecine vétérinaire/Picage_chronique/Picage_chronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le picage chronique est un symptôme comportemental anormal chez les oiseaux. Ils se mutilent les plumes en les mordillant parfois jusqu'à se faire des plaies ouvertes. Ce comportement n'a rien à voir avec l'entretien et l'arrachage des plumes usées pendant la mue.
 Cette maladie peut avoir plusieurs raisons comme les problèmes psychologiques (solitude, stress...) ou des problèmes de malnutrition, mais aussi des parasites, virus, dermatites, tumeurs pulmonaires, aspergilloses... Les animaux atteints peuvent développer, après un certain temps, un comportement maladif.
